--- a/docs/excel/TMapEventRefresh.xlsx
+++ b/docs/excel/TMapEventRefresh.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Id</t>
   </si>
@@ -146,6 +146,18 @@
   </si>
   <si>
     <t>Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -212,7 +224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -226,17 +238,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -251,6 +254,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -588,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -613,16 +620,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="6"/>
@@ -638,13 +645,13 @@
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="6"/>
@@ -655,32 +662,32 @@
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="C3" s="7"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -695,7 +702,7 @@
       <c r="D5" s="6">
         <v>100</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <v>1</v>
       </c>
       <c r="F5"/>
@@ -705,17 +712,17 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="9">
         <v>2</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
         <v>100</v>
       </c>
-      <c r="D6" s="6">
-        <v>200</v>
-      </c>
-      <c r="E6" s="15">
-        <v>2</v>
+      <c r="E6" s="12">
+        <v>1</v>
       </c>
       <c r="F6"/>
       <c r="H6" s="6"/>
@@ -728,13 +735,13 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D7" s="6">
-        <v>300</v>
-      </c>
-      <c r="E7" s="15">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
       </c>
       <c r="F7"/>
       <c r="H7" s="6"/>
@@ -744,16 +751,16 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D8" s="6">
-        <v>400</v>
-      </c>
-      <c r="E8" s="15">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
       </c>
       <c r="F8"/>
       <c r="H8" s="6"/>
@@ -763,70 +770,201 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D9" s="6">
-        <v>600</v>
-      </c>
-      <c r="E9" s="15">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
       </c>
       <c r="F9"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="10"/>
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10" s="6">
+        <v>200</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
       <c r="F10"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="11"/>
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11" s="6">
+        <v>300</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="F11"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12" s="6">
+        <v>300</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="F12"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="11"/>
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="D13" s="6">
+        <v>300</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="F13"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="11"/>
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>300</v>
+      </c>
+      <c r="D14" s="6">
+        <v>400</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="F14"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>300</v>
+      </c>
+      <c r="D15" s="6">
+        <v>400</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>300</v>
+      </c>
+      <c r="D16" s="6">
+        <v>400</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>400</v>
+      </c>
+      <c r="D17" s="13">
+        <v>500</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>400</v>
+      </c>
+      <c r="D18" s="13">
+        <v>500</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4">
+        <v>400</v>
+      </c>
+      <c r="D19" s="13">
+        <v>500</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/docs/excel/TMapEventRefresh.xlsx
+++ b/docs/excel/TMapEventRefresh.xlsx
@@ -15,30 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Id</t>
   </si>
   <si>
     <t>uint32</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>int32</t>
-    </r>
   </si>
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
@@ -145,10 +127,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -158,6 +136,32 @@
   </si>
   <si>
     <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-pro;2-pro;3-pro</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1000;2-1000;3-1000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeRand</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -598,13 +602,13 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.796875" style="4" customWidth="1"/>
     <col min="3" max="3" width="12.796875" style="4" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.8984375" style="5" customWidth="1"/>
@@ -621,16 +625,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="E1" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -642,17 +646,17 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
+      <c r="B2" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="E2" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -660,7 +664,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="K3" s="8"/>
@@ -669,19 +673,19 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="E4" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -693,8 +697,8 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -712,8 +716,8 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="9">
-        <v>2</v>
+      <c r="B6" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -817,7 +821,7 @@
         <v>300</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11"/>
       <c r="H11" s="6"/>
@@ -836,7 +840,7 @@
         <v>300</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12"/>
       <c r="H12" s="6"/>
@@ -855,7 +859,7 @@
         <v>300</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F13"/>
       <c r="H13" s="6"/>
@@ -874,7 +878,7 @@
         <v>400</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14"/>
       <c r="H14" s="6"/>
@@ -893,7 +897,7 @@
         <v>400</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -911,7 +915,7 @@
         <v>400</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -929,7 +933,7 @@
         <v>500</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -946,7 +950,7 @@
         <v>500</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -963,7 +967,7 @@
         <v>500</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -992,59 +996,59 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TMapEventRefresh.xlsx
+++ b/docs/excel/TMapEventRefresh.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -127,32 +127,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>-pro;2-pro;3-pro</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -162,6 +136,24 @@
   </si>
   <si>
     <t>TypeRand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1000;2-1000;3-1000</t>
+  </si>
+  <si>
+    <t>ListSpliter: ";"</t>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -599,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -625,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>21</v>
@@ -647,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>23</v>
@@ -665,6 +657,9 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C3" s="7"/>
       <c r="K3" s="8"/>
@@ -698,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -707,7 +702,7 @@
         <v>100</v>
       </c>
       <c r="E5" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5"/>
       <c r="H5" s="6"/>
@@ -717,16 +712,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D6" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E6" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6"/>
       <c r="H6" s="6"/>
@@ -735,17 +730,17 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7">
-        <v>3</v>
+      <c r="B7" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D7" s="6">
-        <v>100</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="F7"/>
       <c r="H7" s="6"/>
@@ -754,17 +749,17 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D8" s="6">
-        <v>200</v>
-      </c>
-      <c r="E8" s="12">
-        <v>1</v>
+        <v>400</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="F8"/>
       <c r="H8" s="6"/>
@@ -773,201 +768,17 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="D9" s="6">
-        <v>200</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1</v>
-      </c>
-      <c r="F9"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-      <c r="D10" s="6">
-        <v>200</v>
-      </c>
-      <c r="E10" s="12">
-        <v>1</v>
-      </c>
-      <c r="F10"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>200</v>
-      </c>
-      <c r="D11" s="6">
-        <v>300</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>200</v>
-      </c>
-      <c r="D12" s="6">
-        <v>300</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>200</v>
-      </c>
-      <c r="D13" s="6">
-        <v>300</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>300</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="B9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4">
         <v>400</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>300</v>
-      </c>
-      <c r="D15" s="6">
-        <v>400</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>300</v>
-      </c>
-      <c r="D16" s="6">
-        <v>400</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4">
-        <v>400</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="D9" s="13">
         <v>500</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4">
-        <v>2</v>
-      </c>
-      <c r="C18" s="4">
-        <v>400</v>
-      </c>
-      <c r="D18" s="13">
-        <v>500</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>15</v>
-      </c>
-      <c r="B19" s="4">
-        <v>3</v>
-      </c>
-      <c r="C19" s="4">
-        <v>400</v>
-      </c>
-      <c r="D19" s="13">
-        <v>500</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>32</v>
+      <c r="E9" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TMapEventRefresh.xlsx
+++ b/docs/excel/TMapEventRefresh.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Id</t>
   </si>
@@ -75,10 +75,6 @@
   </si>
   <si>
     <t>注释</t>
-  </si>
-  <si>
-    <t xml:space="preserve">事件类型 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RangeMin</t>
@@ -131,29 +127,41 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>TypeRand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>1-1000;2-1000;3-1000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeRand</t>
+  </si>
+  <si>
+    <t>ListSpliter: ";"</t>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">事件类型 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1-1000;2-1000;3-1000</t>
-  </si>
-  <si>
-    <t>ListSpliter: ";"</t>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001-333;1002-333;1003-333;2001-500;2002-500;3001-500;3002-500</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1000;2-1000;3-1000</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -170,6 +178,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -220,7 +229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -254,6 +263,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -591,16 +603,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="62.59765625" style="4" customWidth="1"/>
     <col min="3" max="3" width="12.796875" style="4" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.8984375" style="5" customWidth="1"/>
@@ -617,16 +629,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="E1" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -639,16 +651,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="E2" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -659,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="7"/>
       <c r="K3" s="8"/>
@@ -671,16 +683,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="E4" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -693,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -712,7 +724,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -731,7 +743,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>200</v>
@@ -740,7 +752,7 @@
         <v>300</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7"/>
       <c r="H7" s="6"/>
@@ -750,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>300</v>
@@ -759,7 +771,7 @@
         <v>400</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8"/>
       <c r="H8" s="6"/>
@@ -769,7 +781,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4">
         <v>400</v>
@@ -778,7 +790,12 @@
         <v>500</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="15" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -807,7 +824,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TMapEventRefresh.xlsx
+++ b/docs/excel/TMapEventRefresh.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Id</t>
   </si>
@@ -131,9 +131,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1-1000;2-1000;3-1000</t>
-  </si>
-  <si>
     <t>ListSpliter: ";"</t>
   </si>
   <si>
@@ -153,15 +150,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1-1000;2-1000;3-1000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001-333;1002-333;1003-333;2001-500;2002-500;3001-500;3002-500</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1000;2-1000;3-1000</t>
+    <t>1001-500;1002-500;1003-500;2001-500;2002-500;3001-500;3002-500</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -606,7 +595,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -671,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="7"/>
       <c r="K3" s="8"/>
@@ -683,7 +672,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>24</v>
@@ -704,8 +693,8 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>37</v>
+      <c r="B5" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -723,8 +712,8 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>31</v>
+      <c r="B6" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -742,8 +731,8 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>39</v>
+      <c r="B7" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="C7">
         <v>200</v>
@@ -752,7 +741,7 @@
         <v>300</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7"/>
       <c r="H7" s="6"/>
@@ -761,8 +750,8 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>31</v>
+      <c r="B8" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="C8">
         <v>300</v>
@@ -771,7 +760,7 @@
         <v>400</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8"/>
       <c r="H8" s="6"/>
@@ -780,8 +769,8 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>31</v>
+      <c r="B9" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="C9" s="4">
         <v>400</v>
@@ -790,13 +779,11 @@
         <v>500</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="B10" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/docs/excel/TMapEventRefresh.xlsx
+++ b/docs/excel/TMapEventRefresh.xlsx
@@ -123,10 +123,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TypeRand</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -151,6 +147,10 @@
   </si>
   <si>
     <t>1001-500;1002-500;1003-500;2001-500;2002-500;3001-500;3002-500</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]string</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -595,7 +595,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>20</v>
@@ -640,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>22</v>
@@ -660,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7"/>
       <c r="K3" s="8"/>
@@ -672,7 +672,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>24</v>
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -732,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>200</v>
@@ -741,7 +741,7 @@
         <v>300</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7"/>
       <c r="H7" s="6"/>
@@ -751,7 +751,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300</v>
@@ -760,7 +760,7 @@
         <v>400</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8"/>
       <c r="H8" s="6"/>
@@ -770,7 +770,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4">
         <v>400</v>
@@ -779,7 +779,7 @@
         <v>500</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">

--- a/docs/excel/TMapEventRefresh.xlsx
+++ b/docs/excel/TMapEventRefresh.xlsx
@@ -10,7 +10,7 @@
     <sheet name="TMapEventRefresh" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -595,7 +595,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="6">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="12">
         <v>3</v>
@@ -716,10 +716,10 @@
         <v>35</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="6">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="E6" s="12">
         <v>5</v>
@@ -735,10 +735,10 @@
         <v>35</v>
       </c>
       <c r="C7">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="D7" s="6">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>31</v>
@@ -754,10 +754,10 @@
         <v>35</v>
       </c>
       <c r="C8">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="D8" s="6">
-        <v>400</v>
+        <v>6000</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>32</v>
@@ -773,10 +773,10 @@
         <v>35</v>
       </c>
       <c r="C9" s="4">
-        <v>400</v>
+        <v>6000</v>
       </c>
       <c r="D9" s="13">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>33</v>

--- a/docs/excel/TMapEventRefresh.xlsx
+++ b/docs/excel/TMapEventRefresh.xlsx
@@ -146,11 +146,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1001-500;1002-500;1003-500;2001-500;2002-500;3001-500;3002-500</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[]string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001-500;1002-500;1003-500;2001-500;2002-500;3001-100;3002-100</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -595,7 +595,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -640,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>22</v>
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>1000</v>
@@ -732,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>2000</v>
@@ -751,7 +751,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>4000</v>
@@ -770,7 +770,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="4">
         <v>6000</v>

--- a/docs/excel/TMapEventRefresh.xlsx
+++ b/docs/excel/TMapEventRefresh.xlsx
@@ -15,14 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>uint32</t>
-  </si>
-  <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
   <si>
@@ -85,24 +82,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>int32</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>区间起始(米)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -151,6 +130,14 @@
   </si>
   <si>
     <t>1001-500;1002-500;1003-500;2001-500;2002-500;3001-100;3002-100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -595,7 +582,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -618,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="E1" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -636,20 +623,20 @@
       <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -657,10 +644,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" s="7"/>
       <c r="K3" s="8"/>
@@ -669,19 +656,19 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -694,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -713,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>1000</v>
@@ -732,7 +719,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>2000</v>
@@ -741,7 +728,7 @@
         <v>4000</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F7"/>
       <c r="H7" s="6"/>
@@ -751,7 +738,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>4000</v>
@@ -760,7 +747,7 @@
         <v>6000</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F8"/>
       <c r="H8" s="6"/>
@@ -770,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4">
         <v>6000</v>
@@ -779,7 +766,7 @@
         <v>10000</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -811,59 +798,59 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
